--- a/Importación_GUIA/6. Importación_Equipos.xlsx
+++ b/Importación_GUIA/6. Importación_Equipos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10260"/>
+    <workbookView windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Importación_Equipos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="67">
   <si>
     <t>000001</t>
   </si>
@@ -152,20 +152,86 @@
   </si>
   <si>
     <t>Oficina</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>Oficina 2</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>Oficina 3</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>Oficina 4</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>Oficina 5</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>Oficina 6</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>Oficina 7</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>Oficina 8</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>Oficina 9</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>Oficina 10</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>Oficina 11</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>Oficina 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,34 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -229,9 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,37 +276,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -285,8 +291,62 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,13 +368,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -322,15 +375,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,175 +422,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +634,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -605,24 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,6 +699,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,159 +716,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -816,16 +875,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,61 +896,61 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Énfasis6" xfId="1" builtinId="52"/>
-    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="2"/>
-    <cellStyle name="40% - Énfasis6" xfId="3" builtinId="51"/>
-    <cellStyle name="20% - Énfasis6" xfId="4" builtinId="50"/>
-    <cellStyle name="40% - Énfasis5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
-    <cellStyle name="Énfasis5" xfId="7" builtinId="45"/>
-    <cellStyle name="40% - Énfasis4" xfId="8" builtinId="43"/>
-    <cellStyle name="Énfasis4" xfId="9" builtinId="41"/>
-    <cellStyle name="40% - Énfasis3" xfId="10" builtinId="39"/>
-    <cellStyle name="Celda vinculada" xfId="11" builtinId="24"/>
-    <cellStyle name="20% - Énfasis3" xfId="12" builtinId="38"/>
-    <cellStyle name="40% - Énfasis2" xfId="13" builtinId="35"/>
-    <cellStyle name="60% - Énfasis1" xfId="14" builtinId="32"/>
-    <cellStyle name="20% - Énfasis1" xfId="15" builtinId="30"/>
-    <cellStyle name="Moneda [0]" xfId="16" builtinId="7"/>
-    <cellStyle name="60% - Énfasis4" xfId="17" builtinId="44"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29"/>
-    <cellStyle name="Incorrecto" xfId="19" builtinId="27"/>
-    <cellStyle name="Correcto" xfId="20" builtinId="26"/>
-    <cellStyle name="Énfasis6" xfId="21" builtinId="49"/>
-    <cellStyle name="40% - Énfasis1" xfId="22" builtinId="31"/>
-    <cellStyle name="Total" xfId="23" builtinId="25"/>
-    <cellStyle name="60% - Énfasis2" xfId="24" builtinId="36"/>
-    <cellStyle name="Énfasis2" xfId="25" builtinId="33"/>
-    <cellStyle name="Moneda" xfId="26" builtinId="4"/>
-    <cellStyle name="Porcentaje" xfId="27" builtinId="5"/>
-    <cellStyle name="Texto explicativo" xfId="28" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="29" builtinId="16"/>
-    <cellStyle name="Celda de comprobación" xfId="30" builtinId="23"/>
-    <cellStyle name="Cálculo" xfId="31" builtinId="22"/>
-    <cellStyle name="Título 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Título 3" xfId="33" builtinId="18"/>
-    <cellStyle name="Título 2" xfId="34" builtinId="17"/>
-    <cellStyle name="20% - Énfasis2" xfId="35" builtinId="34"/>
-    <cellStyle name="Neutro" xfId="36" builtinId="28"/>
-    <cellStyle name="60% - Énfasis3" xfId="37" builtinId="40"/>
-    <cellStyle name="Título" xfId="38" builtinId="15"/>
-    <cellStyle name="Salida" xfId="39" builtinId="21"/>
-    <cellStyle name="60% - Énfasis5" xfId="40" builtinId="48"/>
-    <cellStyle name="Coma" xfId="41" builtinId="3"/>
-    <cellStyle name="Entrada" xfId="42" builtinId="20"/>
-    <cellStyle name="Nota" xfId="43" builtinId="10"/>
-    <cellStyle name="20% - Énfasis4" xfId="44" builtinId="42"/>
-    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9"/>
-    <cellStyle name="Coma [0]" xfId="46" builtinId="6"/>
-    <cellStyle name="Hipervínculo" xfId="47" builtinId="8"/>
-    <cellStyle name="Énfasis3" xfId="48" builtinId="37"/>
-    <cellStyle name="Texto de advertencia" xfId="49" builtinId="11"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1160,35 +1219,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U5"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.859375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.859375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.2890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.2890625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.859375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.4296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.2890625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.2890625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.859375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.71428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.8571428571429" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.859375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.859375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.859375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.2890625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.85714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.8571428571429" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.2857142857143" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.5714285714286" style="3" customWidth="1"/>
+    <col min="19" max="19" width="26.1428571428571" style="3" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7142857142857" style="1" customWidth="1"/>
     <col min="22" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
@@ -1514,6 +1573,721 @@
         <v>14</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:21">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3292</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2387</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>6</v>
+      </c>
+      <c r="R6" s="12">
+        <v>44586</v>
+      </c>
+      <c r="S6" s="12">
+        <v>44586</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:21">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3293</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2388</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>7</v>
+      </c>
+      <c r="R7" s="12">
+        <v>44587</v>
+      </c>
+      <c r="S7" s="12">
+        <v>44587</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:21">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3294</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2389</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4</v>
+      </c>
+      <c r="P8" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>8</v>
+      </c>
+      <c r="R8" s="12">
+        <v>44588</v>
+      </c>
+      <c r="S8" s="12">
+        <v>44588</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:21">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3295</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2390</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5</v>
+      </c>
+      <c r="P9" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>9</v>
+      </c>
+      <c r="R9" s="12">
+        <v>44589</v>
+      </c>
+      <c r="S9" s="12">
+        <v>44589</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:21">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3296</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2391</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="4">
+        <v>6</v>
+      </c>
+      <c r="P10" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>10</v>
+      </c>
+      <c r="R10" s="12">
+        <v>44590</v>
+      </c>
+      <c r="S10" s="12">
+        <v>44590</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:21">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3297</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2392</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="4">
+        <v>7</v>
+      </c>
+      <c r="P11" s="11">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>11</v>
+      </c>
+      <c r="R11" s="12">
+        <v>44591</v>
+      </c>
+      <c r="S11" s="12">
+        <v>44591</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:21">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3298</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2393</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="4">
+        <v>8</v>
+      </c>
+      <c r="P12" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>12</v>
+      </c>
+      <c r="R12" s="12">
+        <v>44592</v>
+      </c>
+      <c r="S12" s="12">
+        <v>44592</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:21">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3299</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2394</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="4">
+        <v>9</v>
+      </c>
+      <c r="P13" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>13</v>
+      </c>
+      <c r="R13" s="12">
+        <v>44593</v>
+      </c>
+      <c r="S13" s="12">
+        <v>44593</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:21">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2395</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="4">
+        <v>10</v>
+      </c>
+      <c r="P14" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>14</v>
+      </c>
+      <c r="R14" s="12">
+        <v>44594</v>
+      </c>
+      <c r="S14" s="12">
+        <v>44594</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:21">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3301</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2396</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="4">
+        <v>11</v>
+      </c>
+      <c r="P15" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>15</v>
+      </c>
+      <c r="R15" s="12">
+        <v>44595</v>
+      </c>
+      <c r="S15" s="12">
+        <v>44595</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:21">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3302</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2397</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="4">
+        <v>12</v>
+      </c>
+      <c r="P16" s="11">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>16</v>
+      </c>
+      <c r="R16" s="12">
+        <v>44596</v>
+      </c>
+      <c r="S16" s="12">
+        <v>44596</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1525,7 +2299,7 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="L1:L3 A1:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:A4;L1:L3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Importación_GUIA/6. Importación_Equipos.xlsx
+++ b/Importación_GUIA/6. Importación_Equipos.xlsx
@@ -138,9 +138,6 @@
     <t>Oficina</t>
   </si>
   <si>
-    <t>Óptimo</t>
-  </si>
-  <si>
     <t>Depósito</t>
   </si>
   <si>
@@ -156,10 +153,13 @@
     <t>Residencia</t>
   </si>
   <si>
-    <t>Médicos</t>
-  </si>
-  <si>
-    <t>Científicos</t>
+    <t>Medicos</t>
+  </si>
+  <si>
+    <t>Cientificos</t>
+  </si>
+  <si>
+    <t>Optimo</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -627,13 +627,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>7</v>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>6</v>
@@ -753,19 +753,19 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>9</v>
@@ -790,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -816,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -855,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -881,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>27</v>
@@ -930,7 +930,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <ignoredErrors>
-    <ignoredError sqref="L1 A1 L5 A2:M4 A5:K5 M5" numberStoredAsText="1"/>
+    <ignoredError sqref="L1 A1 L5 A2:G4 A5:G5 M5 I2:M4 I5:K5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Importación_GUIA/6. Importación_Equipos.xlsx
+++ b/Importación_GUIA/6. Importación_Equipos.xlsx
@@ -60,9 +60,6 @@
     <t>chequeado</t>
   </si>
   <si>
-    <t>Maquinaria</t>
-  </si>
-  <si>
     <t>000002</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>14299653</t>
   </si>
   <si>
-    <t>Comunicaciones</t>
-  </si>
-  <si>
     <t>000003</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>No hay usuario</t>
   </si>
   <si>
-    <t>Oficina</t>
-  </si>
-  <si>
     <t>Depósito</t>
   </si>
   <si>
@@ -153,13 +144,22 @@
     <t>Residencia</t>
   </si>
   <si>
-    <t>Medicos</t>
-  </si>
-  <si>
-    <t>Cientificos</t>
-  </si>
-  <si>
     <t>Optimo</t>
+  </si>
+  <si>
+    <t>maquinaria</t>
+  </si>
+  <si>
+    <t>comunicaciones</t>
+  </si>
+  <si>
+    <t>medicos</t>
+  </si>
+  <si>
+    <t>cientificos</t>
+  </si>
+  <si>
+    <t>oficina</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -627,13 +627,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>7</v>
@@ -664,24 +664,24 @@
         <v>11</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="8">
-        <v>3291</v>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -690,19 +690,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>9</v>
@@ -710,7 +710,9 @@
       <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
       <c r="P2" s="11">
         <v>5</v>
       </c>
@@ -727,25 +729,25 @@
         <v>11</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
@@ -753,19 +755,19 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>9</v>
@@ -795,10 +797,10 @@
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -807,28 +809,28 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>9</v>
@@ -860,19 +862,19 @@
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
+      <c r="D5" s="8">
+        <v>3291</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>5</v>
@@ -881,19 +883,19 @@
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>9</v>
@@ -901,9 +903,7 @@
       <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="11">
-        <v>1</v>
-      </c>
+      <c r="O5" s="11"/>
       <c r="P5" s="11">
         <v>5</v>
       </c>
@@ -920,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <ignoredErrors>
-    <ignoredError sqref="L1 A1 L5 A2:G4 A5:G5 M5 I2:M4 I5:K5" numberStoredAsText="1"/>
+    <ignoredError sqref="L1 A1 B5:G5 I5:M5 A2:A5 L3 L2 L4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Importación_GUIA/6. Importación_Equipos.xlsx
+++ b/Importación_GUIA/6. Importación_Equipos.xlsx
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -600,7 +600,7 @@
     <col min="18" max="18" width="20.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="26.140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>

--- a/Importación_GUIA/6. Importación_Equipos.xlsx
+++ b/Importación_GUIA/6. Importación_Equipos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10260"/>
+    <workbookView windowWidth="25600" windowHeight="9400"/>
   </bookViews>
   <sheets>
     <sheet name="Importación_Equipos" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Importación_Equipos!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
   <si>
     <t>000001</t>
   </si>
@@ -152,20 +165,62 @@
   </si>
   <si>
     <t>Oficina</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>Oficina 2</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>Oficina 3</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>Oficina 4</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>UNIDAD CENTRAL DE PROCESAMIENTO (CPU)</t>
+  </si>
+  <si>
+    <t>INPUR</t>
+  </si>
+  <si>
+    <t>NP3020M2</t>
+  </si>
+  <si>
+    <t>NEGRO</t>
+  </si>
+  <si>
+    <t>214285808</t>
+  </si>
+  <si>
+    <t>Optimo</t>
+  </si>
+  <si>
+    <t>Administracion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,34 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -229,6 +256,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -238,47 +319,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +334,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,29 +357,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,175 +411,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +623,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -605,24 +671,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,6 +688,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,159 +705,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -816,16 +864,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,61 +885,61 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Énfasis6" xfId="1" builtinId="52"/>
-    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="2"/>
-    <cellStyle name="40% - Énfasis6" xfId="3" builtinId="51"/>
-    <cellStyle name="20% - Énfasis6" xfId="4" builtinId="50"/>
-    <cellStyle name="40% - Énfasis5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
-    <cellStyle name="Énfasis5" xfId="7" builtinId="45"/>
-    <cellStyle name="40% - Énfasis4" xfId="8" builtinId="43"/>
-    <cellStyle name="Énfasis4" xfId="9" builtinId="41"/>
-    <cellStyle name="40% - Énfasis3" xfId="10" builtinId="39"/>
-    <cellStyle name="Celda vinculada" xfId="11" builtinId="24"/>
-    <cellStyle name="20% - Énfasis3" xfId="12" builtinId="38"/>
-    <cellStyle name="40% - Énfasis2" xfId="13" builtinId="35"/>
-    <cellStyle name="60% - Énfasis1" xfId="14" builtinId="32"/>
-    <cellStyle name="20% - Énfasis1" xfId="15" builtinId="30"/>
-    <cellStyle name="Moneda [0]" xfId="16" builtinId="7"/>
-    <cellStyle name="60% - Énfasis4" xfId="17" builtinId="44"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29"/>
-    <cellStyle name="Incorrecto" xfId="19" builtinId="27"/>
-    <cellStyle name="Correcto" xfId="20" builtinId="26"/>
-    <cellStyle name="Énfasis6" xfId="21" builtinId="49"/>
-    <cellStyle name="40% - Énfasis1" xfId="22" builtinId="31"/>
-    <cellStyle name="Total" xfId="23" builtinId="25"/>
-    <cellStyle name="60% - Énfasis2" xfId="24" builtinId="36"/>
-    <cellStyle name="Énfasis2" xfId="25" builtinId="33"/>
-    <cellStyle name="Moneda" xfId="26" builtinId="4"/>
-    <cellStyle name="Porcentaje" xfId="27" builtinId="5"/>
-    <cellStyle name="Texto explicativo" xfId="28" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="29" builtinId="16"/>
-    <cellStyle name="Celda de comprobación" xfId="30" builtinId="23"/>
-    <cellStyle name="Cálculo" xfId="31" builtinId="22"/>
-    <cellStyle name="Título 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Título 3" xfId="33" builtinId="18"/>
-    <cellStyle name="Título 2" xfId="34" builtinId="17"/>
-    <cellStyle name="20% - Énfasis2" xfId="35" builtinId="34"/>
-    <cellStyle name="Neutro" xfId="36" builtinId="28"/>
-    <cellStyle name="60% - Énfasis3" xfId="37" builtinId="40"/>
-    <cellStyle name="Título" xfId="38" builtinId="15"/>
-    <cellStyle name="Salida" xfId="39" builtinId="21"/>
-    <cellStyle name="60% - Énfasis5" xfId="40" builtinId="48"/>
-    <cellStyle name="Coma" xfId="41" builtinId="3"/>
-    <cellStyle name="Entrada" xfId="42" builtinId="20"/>
-    <cellStyle name="Nota" xfId="43" builtinId="10"/>
-    <cellStyle name="20% - Énfasis4" xfId="44" builtinId="42"/>
-    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9"/>
-    <cellStyle name="Coma [0]" xfId="46" builtinId="6"/>
-    <cellStyle name="Hipervínculo" xfId="47" builtinId="8"/>
-    <cellStyle name="Énfasis3" xfId="48" builtinId="37"/>
-    <cellStyle name="Texto de advertencia" xfId="49" builtinId="11"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -900,6 +948,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,20 +1215,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.3046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.859375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.2890625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.2890625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.015625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.859375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.4296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.2890625" style="1" customWidth="1"/>
@@ -1517,6 +1572,266 @@
         <v>44</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:21">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3292</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2387</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>6</v>
+      </c>
+      <c r="R6" s="12">
+        <v>44586</v>
+      </c>
+      <c r="S6" s="12">
+        <v>44586</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:21">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3293</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2388</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>7</v>
+      </c>
+      <c r="R7" s="12">
+        <v>44587</v>
+      </c>
+      <c r="S7" s="12">
+        <v>44587</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:21">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3294</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2389</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4</v>
+      </c>
+      <c r="P8" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>8</v>
+      </c>
+      <c r="R8" s="12">
+        <v>44588</v>
+      </c>
+      <c r="S8" s="12">
+        <v>44588</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:21">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>44589</v>
+      </c>
+      <c r="S9" s="12">
+        <v>44589</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:U1751">
     <sortCondition ref="B1"/>
@@ -1525,7 +1840,7 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="L1:L3 A1:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="L1:L3 A3:A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>